--- a/source/docs/dev_status.xlsx
+++ b/source/docs/dev_status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\cv.jit\source\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E07A81-67E4-4905-AE2A-E83CB8D3B361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F321E6-08A3-45D5-A508-8048B4910B7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="804" windowWidth="23040" windowHeight="12204" xr2:uid="{E249F16F-B9B8-4BC2-B0AA-5252A6B1A5E2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="126">
   <si>
     <t>Asset</t>
     <phoneticPr fontId="1"/>
@@ -438,6 +438,10 @@
   </si>
   <si>
     <t>1.9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Uses OpenCV</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -532,7 +536,27 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -853,11 +877,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885690AB-4AE0-43A7-AD9C-C0644E2610F1}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -869,9 +893,10 @@
     <col min="5" max="5" width="19.796875" customWidth="1"/>
     <col min="6" max="6" width="25.296875" customWidth="1"/>
     <col min="7" max="7" width="12.69921875" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,8 +918,11 @@
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -916,8 +944,11 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -939,8 +970,11 @@
       <c r="G3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -962,8 +996,11 @@
       <c r="G4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -985,8 +1022,11 @@
       <c r="G5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1008,8 +1048,11 @@
       <c r="G6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1031,8 +1074,11 @@
       <c r="G7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1054,8 +1100,11 @@
       <c r="G8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1077,8 +1126,11 @@
       <c r="G9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1100,8 +1152,11 @@
       <c r="G10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1123,8 +1178,11 @@
       <c r="G11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1146,8 +1204,11 @@
       <c r="G12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1169,8 +1230,11 @@
       <c r="G13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1192,8 +1256,11 @@
       <c r="G14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1215,8 +1282,11 @@
       <c r="G15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1238,8 +1308,11 @@
       <c r="G16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1261,8 +1334,11 @@
       <c r="G17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1284,8 +1360,11 @@
       <c r="G18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1307,8 +1386,11 @@
       <c r="G19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1330,8 +1412,11 @@
       <c r="G20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1353,8 +1438,11 @@
       <c r="G21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1376,8 +1464,11 @@
       <c r="G22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1399,8 +1490,11 @@
       <c r="G23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1422,8 +1516,11 @@
       <c r="G24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1445,8 +1542,11 @@
       <c r="G25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1468,8 +1568,11 @@
       <c r="G26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1491,8 +1594,11 @@
       <c r="G27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1514,8 +1620,11 @@
       <c r="G28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1537,8 +1646,11 @@
       <c r="G29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1560,8 +1672,11 @@
       <c r="G30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -1583,8 +1698,11 @@
       <c r="G31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -1606,8 +1724,11 @@
       <c r="G32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1629,8 +1750,11 @@
       <c r="G33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -1652,8 +1776,11 @@
       <c r="G34" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1675,8 +1802,11 @@
       <c r="G35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1698,8 +1828,11 @@
       <c r="G36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1721,8 +1854,11 @@
       <c r="G37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1744,8 +1880,11 @@
       <c r="G38" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -1767,8 +1906,11 @@
       <c r="G39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -1790,8 +1932,11 @@
       <c r="G40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1810,8 +1955,11 @@
       <c r="G41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -1833,8 +1981,11 @@
       <c r="G42" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -1856,8 +2007,11 @@
       <c r="G43" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -1879,8 +2033,11 @@
       <c r="G44" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -1902,8 +2059,11 @@
       <c r="G45" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -1925,8 +2085,11 @@
       <c r="G46" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -1945,8 +2108,11 @@
       <c r="G47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -1965,8 +2131,11 @@
       <c r="G48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -1988,8 +2157,11 @@
       <c r="G49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -2011,8 +2183,11 @@
       <c r="G50" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -2034,8 +2209,11 @@
       <c r="G51" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -2057,8 +2235,11 @@
       <c r="G52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -2081,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -2104,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -2127,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -2150,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -2173,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -2196,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -2219,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -2242,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -2265,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -2288,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -2311,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -3089,8 +3270,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G2:G97">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H52">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>FALSE</formula>
+      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/source/docs/dev_status.xlsx
+++ b/source/docs/dev_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\cv.jit\source\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F321E6-08A3-45D5-A508-8048B4910B7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C525CDB0-044D-4EF9-892F-D82A21509D44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="804" windowWidth="23040" windowHeight="12204" xr2:uid="{E249F16F-B9B8-4BC2-B0AA-5252A6B1A5E2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="214">
   <si>
     <t>Asset</t>
     <phoneticPr fontId="1"/>
@@ -442,6 +442,352 @@
   </si>
   <si>
     <t>Uses OpenCV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Use a Kalman filter to remove noise in tracking or sensor data.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Find multi-scale features and their descriptors for object matching.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Match two sets of keypoints.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add gaussian blur to an image.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Detect facial landmarks such as eyes and mouth.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate random floating point values. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Find the translation and rotation of a detected object in an image.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Draw facial landmarks.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Extract rigid points from facial landmarks.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Separate facial landmarks into easy to access groups.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Output a matrix one row or column at at time.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Draw keypoints.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Filter tracking or sensor data.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Only pass a matrix if it has useful data.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Calibrate camera.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Find chessboard corners in an image to calibrate a camera.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Find a perspective transformation between two planes.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Perspective transform.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Calculate perspective transform.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Calculate dense optical flow for motion detection and analysis.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Track bright areas using MeanShift and CAMShift algorithms.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Obtain binary images using adaptive thresholding.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Change the type of a matrix.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Display optical flow using hue for direction.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wrapper for jit.qt.grab and jit.dx.grab.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Draw tracking info from cv.jit.shift.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Draw tracking info from cv.jit.touches.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Track several areas at a time using MeanShift.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>High-quality interpolated image resizing.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Find connected component bounding boxes.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Find connected component centroids.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Find connected component directions.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Find connected component elongations.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Find connected component moments of inertia.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Find connected component orientations.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shape recognition for connected components.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sort connected components.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Detect edges in an image.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Find extreme values in a matrix.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Detect faces.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Detect corners in a image for tracking.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Calculate Hough space.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Learn and detect patterns.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Find straight lines in an image.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apply time-wise blurring.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Draw connected component bounding boxes.</t>
+  </si>
+  <si>
+    <t>Draw connected component centroids.</t>
+  </si>
+  <si>
+    <t>Draw connected component directions.</t>
+  </si>
+  <si>
+    <t>Draw connected component elongations.</t>
+  </si>
+  <si>
+    <t>Draw connected component moments of inertia.</t>
+  </si>
+  <si>
+    <t>Draw connected component orientations.</t>
+  </si>
+  <si>
+    <t>Display connected components with color.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Display connected components with colour.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Draw image centroids.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Find the direction of a binary image.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Draw detected face regions.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Draw detected corners.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Extract corners for tracking.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Find straight lines in Hough space.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Draw detected straight lines.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Draw tracked corners.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cartesian to polar conversion in matrix data.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Find circularity of binary image.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Find elongation of binary image.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subtract subsequent frames for motion detection.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Find orientation of binary image.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Find perimeter of binary image.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Polar to cartesian conversion in matrix data.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Very basic pattern learning and recognition.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Track points in an image.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Extract edges in a binary image.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Calculate the center of mass of an image.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Calculate covariance matrix.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dilate a binary image to remove noise.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Erode a binary image to remove noise.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Extract a connected component from a binary image.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Optical flow using the Horn-Schunk method.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Extract connected components from a binary image.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Optical flow using the Lucas-Kanade method.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Calculate the mass of an image.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Average of all input images.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Calculate the moments of inertia and invariants in a binary image for shape detection and analysis.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add all matrix values together.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dilate then erode a binary image.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Erode then dilate a binary image.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Calculate the standard deviation of incoming matrices.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Calculate the variance of incoming matrices.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -536,7 +882,7 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -549,11 +895,111 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -877,11 +1323,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885690AB-4AE0-43A7-AD9C-C0644E2610F1}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -896,7 +1342,7 @@
     <col min="8" max="8" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,8 +1367,11 @@
       <c r="H1" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -947,8 +1396,11 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -973,13 +1425,16 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>120</v>
@@ -994,15 +1449,15 @@
         <v>108</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1025,13 +1480,16 @@
       <c r="H5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>120</v>
@@ -1046,18 +1504,18 @@
         <v>108</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>120</v>
@@ -1072,18 +1530,18 @@
         <v>108</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>120</v>
@@ -1098,15 +1556,15 @@
         <v>108</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1127,15 +1585,18 @@
         <v>1</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>120</v>
@@ -1150,21 +1611,21 @@
         <v>108</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="4">
-        <v>1.9</v>
+      <c r="C11" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -1179,38 +1640,41 @@
         <v>1</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -1231,18 +1695,21 @@
         <v>1</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -1254,21 +1721,21 @@
         <v>108</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -1285,16 +1752,19 @@
       <c r="H15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -1306,21 +1776,21 @@
         <v>108</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -1335,12 +1805,15 @@
         <v>1</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -1352,7 +1825,7 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>108</v>
@@ -1363,16 +1836,19 @@
       <c r="H18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="4">
-        <v>1.9</v>
+      <c r="C19" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -1389,25 +1865,28 @@
       <c r="H19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -1415,10 +1894,13 @@
       <c r="H20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -1441,510 +1923,534 @@
       <c r="H21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
-      <c r="H22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" t="s">
-        <v>107</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" t="s">
-        <v>107</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="D38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" t="s">
-        <v>107</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="D40" t="s">
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
         <v>2</v>
       </c>
+      <c r="C41" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="D41" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E41" t="s">
         <v>107</v>
@@ -1953,18 +2459,21 @@
         <v>108</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>120</v>
@@ -1979,21 +2488,21 @@
         <v>108</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
         <v>6</v>
@@ -2007,28 +2516,28 @@
       <c r="G43" t="b">
         <v>1</v>
       </c>
-      <c r="H43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
         <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -2036,25 +2545,28 @@
       <c r="H44" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
         <v>2</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -2062,10 +2574,13 @@
       <c r="H45" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
@@ -2088,16 +2603,22 @@
       <c r="H46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I46" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="E47" t="s">
         <v>107</v>
@@ -2108,19 +2629,22 @@
       <c r="G47" t="b">
         <v>0</v>
       </c>
-      <c r="H47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="E48" t="s">
         <v>107</v>
@@ -2129,30 +2653,30 @@
         <v>108</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
         <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -2160,22 +2684,25 @@
       <c r="H49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>108</v>
@@ -2184,21 +2711,24 @@
         <v>1</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="E51" t="s">
         <v>107</v>
@@ -2207,21 +2737,21 @@
         <v>108</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="4">
-        <v>1.9</v>
+        <v>3</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
@@ -2235,19 +2765,19 @@
       <c r="G52" t="b">
         <v>1</v>
       </c>
-      <c r="H52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
@@ -2259,18 +2789,24 @@
         <v>108</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
@@ -2282,18 +2818,24 @@
         <v>108</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D55" t="s">
         <v>6</v>
@@ -2307,16 +2849,19 @@
       <c r="G55" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
@@ -2328,18 +2873,24 @@
         <v>108</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
@@ -2351,15 +2902,21 @@
         <v>108</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>120</v>
@@ -2374,15 +2931,21 @@
         <v>108</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>120</v>
@@ -2397,12 +2960,18 @@
         <v>108</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2422,293 +2991,342 @@
       <c r="G60" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>107</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
+        <v>107</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>107</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>107</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>107</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>107</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>107</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" t="s">
-        <v>107</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" t="s">
-        <v>107</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D63" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" t="s">
-        <v>107</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>73</v>
-      </c>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D64" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64" t="s">
-        <v>107</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>116</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="4" t="s">
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>107</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D65" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" t="s">
-        <v>107</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D66" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" t="s">
-        <v>107</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D67" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" t="s">
-        <v>107</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="4" t="s">
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>107</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>109</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D68" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" t="s">
-        <v>107</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="D69" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" t="s">
-        <v>107</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="D70" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" t="s">
-        <v>107</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>79</v>
-      </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="D71" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" t="s">
-        <v>107</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>80</v>
-      </c>
-      <c r="B72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D72" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" t="s">
-        <v>107</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>81</v>
-      </c>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="D73" t="s">
         <v>6</v>
       </c>
@@ -2719,15 +3337,18 @@
         <v>108</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>120</v>
@@ -2744,16 +3365,22 @@
       <c r="G74" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D75" t="s">
         <v>6</v>
@@ -2765,44 +3392,48 @@
         <v>108</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D76" t="s">
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>107</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="F76" s="2"/>
       <c r="G76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>122</v>
       </c>
       <c r="D77" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="E77" t="s">
         <v>107</v>
@@ -2811,198 +3442,239 @@
         <v>108</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>107</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>107</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s">
+        <v>107</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>107</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>107</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
+        <v>107</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>107</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>107</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D78" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" t="s">
-        <v>107</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>87</v>
-      </c>
-      <c r="B79" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="D79" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" t="s">
-        <v>107</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="D80" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" t="s">
-        <v>107</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>89</v>
-      </c>
-      <c r="B81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D81" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" t="s">
-        <v>107</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>90</v>
-      </c>
-      <c r="B82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="D82" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" t="s">
-        <v>107</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>91</v>
-      </c>
-      <c r="B83" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D83" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" s="2"/>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
-        <v>92</v>
-      </c>
-      <c r="B84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="D84" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" t="s">
-        <v>107</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>93</v>
-      </c>
-      <c r="B85" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D85" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" t="s">
-        <v>107</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
-        <v>94</v>
-      </c>
-      <c r="B86" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="D86" t="s">
         <v>6</v>
       </c>
@@ -3013,12 +3685,15 @@
         <v>108</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -3038,16 +3713,19 @@
       <c r="G87" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I87" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D88" t="s">
         <v>6</v>
@@ -3061,63 +3739,74 @@
       <c r="G88" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D89" t="s">
         <v>6</v>
       </c>
       <c r="E89" t="s">
-        <v>115</v>
-      </c>
-      <c r="F89" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="G89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>107</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D90" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" t="s">
-        <v>107</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
-        <v>99</v>
-      </c>
-      <c r="B91" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="D91" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="E91" t="s">
         <v>107</v>
@@ -3128,19 +3817,22 @@
       <c r="G91" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I91" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D92" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="E92" t="s">
         <v>107</v>
@@ -3151,19 +3843,25 @@
       <c r="G92" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D93" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="E93" t="s">
         <v>107</v>
@@ -3172,21 +3870,27 @@
         <v>108</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D94" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="E94" t="s">
         <v>107</v>
@@ -3195,21 +3899,21 @@
         <v>108</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="H94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="E95" t="s">
         <v>107</v>
@@ -3220,19 +3924,19 @@
       <c r="G95" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="E96" t="s">
         <v>107</v>
@@ -3241,21 +3945,24 @@
         <v>108</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="H96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D97" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="E97" t="s">
         <v>107</v>
@@ -3264,27 +3971,89 @@
         <v>108</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I97">
+    <sortCondition descending="1" ref="D2:D97"/>
+    <sortCondition ref="A2:A97"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G2:G97">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H52">
+  <conditionalFormatting sqref="H2:H52 I2:I10 I12:I20 I23:I29 I31:I32 I36 I46:I51">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F40" r:id="rId1" xr:uid="{107EEFFC-68CE-4E6F-A1C1-FA5D0A43321C}"/>
-    <hyperlink ref="F25" r:id="rId2" xr:uid="{E7BD9A34-3221-4D91-BE83-CB37A35EF4AE}"/>
-    <hyperlink ref="F23" r:id="rId3" xr:uid="{044C3550-1BFF-4D62-A908-0269C82A9BF4}"/>
-    <hyperlink ref="F22" r:id="rId4" xr:uid="{8178E39D-F3AB-476E-AF6E-E315F9C587CF}"/>
-    <hyperlink ref="F12" r:id="rId5" xr:uid="{330A835C-3038-4BF9-823C-F255AB2E476D}"/>
+    <hyperlink ref="F72" r:id="rId1" xr:uid="{107EEFFC-68CE-4E6F-A1C1-FA5D0A43321C}"/>
+    <hyperlink ref="F49" r:id="rId2" xr:uid="{E7BD9A34-3221-4D91-BE83-CB37A35EF4AE}"/>
+    <hyperlink ref="F45" r:id="rId3" xr:uid="{044C3550-1BFF-4D62-A908-0269C82A9BF4}"/>
+    <hyperlink ref="F44" r:id="rId4" xr:uid="{8178E39D-F3AB-476E-AF6E-E315F9C587CF}"/>
+    <hyperlink ref="F20" r:id="rId5" xr:uid="{330A835C-3038-4BF9-823C-F255AB2E476D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
